--- a/weekly_report/bangkok.xlsx
+++ b/weekly_report/bangkok.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\prasert\Downloads\summary\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\prasert\Downloads\weekly_report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A62DE2E-B4D5-4E82-A42E-712F1E64B5CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{391B97E8-5E2E-4135-8AF6-2AADDF0A8CB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3204" yWindow="1812" windowWidth="17280" windowHeight="9024" xr2:uid="{CDBC83C3-4737-4A2C-88F7-676F9D5126B8}"/>
+    <workbookView xWindow="8040" yWindow="2028" windowWidth="17280" windowHeight="9024" xr2:uid="{CDBC83C3-4737-4A2C-88F7-676F9D5126B8}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -417,7 +417,7 @@
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.8" x14ac:dyDescent="0.4"/>
@@ -475,7 +475,7 @@
         <v>21900</v>
       </c>
       <c r="E3" s="2">
-        <f t="shared" ref="E3:E8" si="0">C3-D3</f>
+        <f t="shared" ref="E3:E7" si="0">C3-D3</f>
         <v>15300</v>
       </c>
     </row>
@@ -556,17 +556,17 @@
         <v>44749</v>
       </c>
       <c r="B8">
-        <v>650</v>
+        <v>700</v>
       </c>
       <c r="C8" s="2">
-        <v>48750</v>
+        <v>50000</v>
       </c>
       <c r="D8" s="2">
-        <v>29700</v>
+        <v>30000</v>
       </c>
       <c r="E8" s="2">
-        <f t="shared" si="0"/>
-        <v>19050</v>
+        <f>C8-D8</f>
+        <v>20000</v>
       </c>
     </row>
   </sheetData>
